--- a/蜂窝_网络状况.xlsx
+++ b/蜂窝_网络状况.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mr_Li/Documents/OneDrive - The Hong Kong Polytechnic University/ProjectCasablanca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC1A9E9-3F31-4260-8B03-A305B2EF44E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFD4AC1-F0DD-5A46-ACD0-605DB48A63EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2280" windowWidth="21165" windowHeight="13275" xr2:uid="{16C69A9D-9458-4DA7-A4A6-FB0FE813E84A}"/>
+    <workbookView xWindow="-22800" yWindow="1240" windowWidth="21160" windowHeight="13280" activeTab="3" xr2:uid="{16C69A9D-9458-4DA7-A4A6-FB0FE813E84A}"/>
   </bookViews>
   <sheets>
     <sheet name="220628_LTE" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,44 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">蜂窝统计!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">蜂窝统计!$A$2:$A$388</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">蜂窝统计!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">蜂窝统计!$B$2:$B$388</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">蜂窝统计!$A$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">蜂窝统计!$A$2:$A$388</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">蜂窝统计!$B$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">蜂窝统计!$B$2:$B$388</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">蜂窝统计!$A$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">蜂窝统计!$A$2:$A$388</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">蜂窝统计!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">蜂窝统计!$B$2:$B$388</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">蜂窝统计!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">蜂窝统计!$A$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">蜂窝统计!$A$2:$A$388</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">蜂窝统计!$B$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">蜂窝统计!$B$2:$B$388</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">蜂窝统计!$A$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">蜂窝统计!$A$2:$A$388</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">蜂窝统计!$B$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">蜂窝统计!$B$2:$B$388</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">蜂窝统计!$A$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">蜂窝统计!$A$2:$A$388</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">蜂窝统计!$B$2:$B$388</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">蜂窝统计!$B$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">蜂窝统计!$B$2:$B$388</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">蜂窝统计!$A$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">蜂窝统计!$A$2:$A$388</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">蜂窝统计!$B$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">蜂窝统计!$B$2:$B$388</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">蜂窝统计!$A$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">蜂窝统计!$A$2:$A$388</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">蜂窝统计!$B$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">蜂窝统计!$B$2:$B$388</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">蜂窝统计!$A$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">蜂窝统计!$A$2:$A$388</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">蜂窝统计!$B$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">蜂窝统计!$B$2:$B$388</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">蜂窝统计!$A$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">蜂窝统计!$A$2:$A$388</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +68,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,14 +76,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -68,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3662" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="142">
   <si>
     <t>来自 182.239.72.252 的回复: 字节=32 时间=52ms TTL=60</t>
   </si>
@@ -492,12 +522,24 @@
     <t>2/198</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Test in 06-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test in 07-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,54 +631,42 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>图表标</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-            </a:rPr>
-            <a:t>图表标</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
         <cx:series layoutId="boxWhisker" uniqueId="{88AB456A-74BC-4D91-9717-44BF14957D10}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>06-28</cx:v>
+              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:v>Test in 06-28</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -646,10 +676,18 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8FD2CED5-6EC4-4810-A500-4D00AD114798}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>07-01</cx:v>
+              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:v>Test in 07-01</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataId val="1"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -657,17 +695,113 @@
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1.25"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling max="250"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>Round trip time(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -1230,16 +1364,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1275,8 +1409,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2971800" y="752474"/>
-              <a:ext cx="4572000" cy="4267201"/>
+              <a:off x="5092700" y="714374"/>
+              <a:ext cx="3606800" cy="3451226"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1608,13 +1742,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2CD409-0962-486E-B9C3-CA43F2A94D9A}">
   <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -1629,7 +1763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -1637,7 +1771,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -1657,7 +1791,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1686,7 +1820,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -1715,7 +1849,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1744,12 +1878,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1778,7 +1912,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -1807,7 +1941,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -1836,7 +1970,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -1865,7 +1999,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1894,7 +2028,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -1923,7 +2057,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -1952,7 +2086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -1981,7 +2115,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -2010,7 +2144,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -2039,7 +2173,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -2068,7 +2202,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -2097,7 +2231,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -2126,7 +2260,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -2155,7 +2289,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -2184,7 +2318,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -2213,7 +2347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -2242,7 +2376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -2271,7 +2405,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2300,7 +2434,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -2329,7 +2463,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -2358,7 +2492,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -2387,7 +2521,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -2416,7 +2550,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -2445,7 +2579,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -2474,7 +2608,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -2503,7 +2637,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -2532,7 +2666,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -2561,7 +2695,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -2590,7 +2724,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -2619,7 +2753,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -2648,7 +2782,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -2677,7 +2811,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -2706,7 +2840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -2735,7 +2869,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -2764,7 +2898,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -2793,7 +2927,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -2822,7 +2956,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -2851,7 +2985,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -2880,7 +3014,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -2909,7 +3043,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2938,7 +3072,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -2967,7 +3101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -2996,7 +3130,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -3025,7 +3159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -3054,7 +3188,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -3083,7 +3217,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -3112,7 +3246,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -3141,7 +3275,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -3170,7 +3304,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>95</v>
       </c>
@@ -3199,7 +3333,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -3228,7 +3362,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -3257,7 +3391,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -3286,7 +3420,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -3315,7 +3449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -3344,7 +3478,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>95</v>
       </c>
@@ -3373,7 +3507,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -3402,7 +3536,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -3431,7 +3565,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -3460,7 +3594,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -3489,7 +3623,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -3518,7 +3652,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -3547,7 +3681,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>95</v>
       </c>
@@ -3576,7 +3710,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -3605,7 +3739,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>95</v>
       </c>
@@ -3634,7 +3768,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>95</v>
       </c>
@@ -3663,7 +3797,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>95</v>
       </c>
@@ -3692,7 +3826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -3721,7 +3855,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -3750,7 +3884,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -3779,7 +3913,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -3808,7 +3942,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>95</v>
       </c>
@@ -3837,7 +3971,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -3866,7 +4000,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -3895,7 +4029,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -3924,7 +4058,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -3953,7 +4087,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -3982,7 +4116,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -4011,7 +4145,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -4040,7 +4174,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -4069,7 +4203,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -4098,7 +4232,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4127,7 +4261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -4156,7 +4290,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -4185,7 +4319,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -4214,7 +4348,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -4243,7 +4377,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -4272,7 +4406,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -4301,7 +4435,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4330,7 +4464,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4359,7 +4493,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -4388,7 +4522,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -4417,7 +4551,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>95</v>
       </c>
@@ -4446,7 +4580,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -4475,7 +4609,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -4504,7 +4638,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>95</v>
       </c>
@@ -4533,7 +4667,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>96</v>
       </c>
@@ -4547,7 +4681,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
         <v>106</v>
       </c>
@@ -4570,12 +4704,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
         <v>112</v>
       </c>
@@ -4589,7 +4723,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>118</v>
       </c>
@@ -4604,7 +4738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -4624,7 +4758,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>95</v>
       </c>
@@ -4653,7 +4787,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>95</v>
       </c>
@@ -4682,7 +4816,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>95</v>
       </c>
@@ -4711,7 +4845,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -4740,7 +4874,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>95</v>
       </c>
@@ -4769,7 +4903,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>95</v>
       </c>
@@ -4798,7 +4932,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>95</v>
       </c>
@@ -4827,7 +4961,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>95</v>
       </c>
@@ -4856,7 +4990,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>95</v>
       </c>
@@ -4885,7 +5019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>95</v>
       </c>
@@ -4914,7 +5048,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>95</v>
       </c>
@@ -4943,7 +5077,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>95</v>
       </c>
@@ -4972,7 +5106,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>95</v>
       </c>
@@ -5001,7 +5135,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>95</v>
       </c>
@@ -5030,7 +5164,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>95</v>
       </c>
@@ -5059,7 +5193,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>95</v>
       </c>
@@ -5088,7 +5222,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>95</v>
       </c>
@@ -5117,7 +5251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>95</v>
       </c>
@@ -5146,7 +5280,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>95</v>
       </c>
@@ -5175,7 +5309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>95</v>
       </c>
@@ -5204,7 +5338,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>95</v>
       </c>
@@ -5233,7 +5367,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>95</v>
       </c>
@@ -5262,7 +5396,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>95</v>
       </c>
@@ -5291,7 +5425,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>95</v>
       </c>
@@ -5320,7 +5454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>95</v>
       </c>
@@ -5349,7 +5483,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>95</v>
       </c>
@@ -5378,7 +5512,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>95</v>
       </c>
@@ -5407,7 +5541,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>95</v>
       </c>
@@ -5436,7 +5570,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>95</v>
       </c>
@@ -5465,7 +5599,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>95</v>
       </c>
@@ -5494,7 +5628,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>95</v>
       </c>
@@ -5523,7 +5657,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>95</v>
       </c>
@@ -5552,7 +5686,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>95</v>
       </c>
@@ -5581,7 +5715,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>95</v>
       </c>
@@ -5610,7 +5744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>95</v>
       </c>
@@ -5639,7 +5773,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>95</v>
       </c>
@@ -5668,7 +5802,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>95</v>
       </c>
@@ -5697,7 +5831,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>95</v>
       </c>
@@ -5726,7 +5860,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>95</v>
       </c>
@@ -5755,7 +5889,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>95</v>
       </c>
@@ -5784,7 +5918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>95</v>
       </c>
@@ -5813,7 +5947,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>95</v>
       </c>
@@ -5842,7 +5976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>95</v>
       </c>
@@ -5871,7 +6005,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>95</v>
       </c>
@@ -5900,7 +6034,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>95</v>
       </c>
@@ -5929,7 +6063,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>95</v>
       </c>
@@ -5958,7 +6092,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>95</v>
       </c>
@@ -5987,7 +6121,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>95</v>
       </c>
@@ -6016,7 +6150,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>95</v>
       </c>
@@ -6045,7 +6179,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>95</v>
       </c>
@@ -6074,7 +6208,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>95</v>
       </c>
@@ -6103,7 +6237,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>95</v>
       </c>
@@ -6132,7 +6266,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>95</v>
       </c>
@@ -6161,7 +6295,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>95</v>
       </c>
@@ -6190,7 +6324,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>95</v>
       </c>
@@ -6219,7 +6353,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>95</v>
       </c>
@@ -6248,7 +6382,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>95</v>
       </c>
@@ -6277,7 +6411,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>95</v>
       </c>
@@ -6306,7 +6440,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>95</v>
       </c>
@@ -6335,7 +6469,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>95</v>
       </c>
@@ -6364,7 +6498,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>95</v>
       </c>
@@ -6393,7 +6527,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>95</v>
       </c>
@@ -6422,7 +6556,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>95</v>
       </c>
@@ -6451,7 +6585,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>95</v>
       </c>
@@ -6480,7 +6614,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>95</v>
       </c>
@@ -6509,7 +6643,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>95</v>
       </c>
@@ -6538,7 +6672,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>95</v>
       </c>
@@ -6567,7 +6701,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>95</v>
       </c>
@@ -6596,7 +6730,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>95</v>
       </c>
@@ -6625,7 +6759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>95</v>
       </c>
@@ -6654,7 +6788,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>95</v>
       </c>
@@ -6683,7 +6817,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>95</v>
       </c>
@@ -6712,7 +6846,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>95</v>
       </c>
@@ -6741,7 +6875,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>95</v>
       </c>
@@ -6770,7 +6904,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>95</v>
       </c>
@@ -6799,7 +6933,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>95</v>
       </c>
@@ -6828,7 +6962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>95</v>
       </c>
@@ -6857,7 +6991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>95</v>
       </c>
@@ -6886,7 +7020,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>95</v>
       </c>
@@ -6915,7 +7049,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>95</v>
       </c>
@@ -6944,7 +7078,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>95</v>
       </c>
@@ -6973,7 +7107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>95</v>
       </c>
@@ -7002,7 +7136,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>95</v>
       </c>
@@ -7031,7 +7165,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
         <v>95</v>
       </c>
@@ -7060,7 +7194,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>95</v>
       </c>
@@ -7089,7 +7223,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>95</v>
       </c>
@@ -7118,7 +7252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
         <v>95</v>
       </c>
@@ -7147,7 +7281,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
         <v>95</v>
       </c>
@@ -7176,7 +7310,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>95</v>
       </c>
@@ -7205,7 +7339,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
         <v>95</v>
       </c>
@@ -7234,7 +7368,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
         <v>95</v>
       </c>
@@ -7263,7 +7397,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
         <v>95</v>
       </c>
@@ -7292,7 +7426,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
         <v>95</v>
       </c>
@@ -7321,7 +7455,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
         <v>95</v>
       </c>
@@ -7350,7 +7484,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
         <v>95</v>
       </c>
@@ -7379,7 +7513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
         <v>95</v>
       </c>
@@ -7408,7 +7542,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
         <v>95</v>
       </c>
@@ -7437,7 +7571,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
         <v>95</v>
       </c>
@@ -7466,12 +7600,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
         <v>95</v>
       </c>
@@ -7500,7 +7634,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
         <v>96</v>
       </c>
@@ -7514,7 +7648,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
         <v>106</v>
       </c>
@@ -7537,12 +7671,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9">
       <c r="B217" t="s">
         <v>112</v>
       </c>
@@ -7556,12 +7690,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
         <v>53</v>
       </c>
@@ -7580,1274 +7714,1274 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1">
       <c r="A117" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1">
       <c r="A124" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1">
       <c r="A136" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1">
       <c r="A143" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1">
       <c r="A158" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1">
       <c r="A159" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1">
       <c r="A160" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1">
       <c r="A161" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1">
       <c r="A162" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1">
       <c r="A163" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1">
       <c r="A164" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1">
       <c r="A165" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1">
       <c r="A166" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1">
       <c r="A167" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1">
       <c r="A168" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1">
       <c r="A169" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1">
       <c r="A170" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1">
       <c r="A171" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1">
       <c r="A172" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1">
       <c r="A173" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1">
       <c r="A174" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1">
       <c r="A175" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1">
       <c r="A176" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1">
       <c r="A177" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1">
       <c r="A178" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1">
       <c r="A179" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1">
       <c r="A180" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1">
       <c r="A181" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1">
       <c r="A182" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1">
       <c r="A183" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1">
       <c r="A184" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1">
       <c r="A185" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1">
       <c r="A186" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1">
       <c r="A187" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1">
       <c r="A188" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1">
       <c r="A189" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1">
       <c r="A190" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1">
       <c r="A191" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1">
       <c r="A192" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1">
       <c r="A193" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1">
       <c r="A194" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1">
       <c r="A195" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1">
       <c r="A196" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1">
       <c r="A197" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1">
       <c r="A198" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1">
       <c r="A199" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1">
       <c r="A200" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1">
       <c r="A201" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1">
       <c r="A202" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1">
       <c r="A203" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1">
       <c r="A204" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1">
       <c r="A205" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1">
       <c r="A206" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1">
       <c r="A207" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1">
       <c r="A208" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1">
       <c r="A209" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1">
       <c r="A210" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1">
       <c r="A211" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1">
       <c r="A212" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1">
       <c r="A213" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1">
       <c r="A214" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1">
       <c r="A216" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1">
       <c r="A217" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1">
       <c r="A218" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1">
       <c r="A219" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1">
       <c r="A221" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1">
       <c r="A223" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1">
       <c r="A224" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1">
       <c r="A225" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1">
       <c r="A226" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1">
       <c r="A227" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1">
       <c r="A228" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1">
       <c r="A229" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1">
       <c r="A230" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1">
       <c r="A231" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1">
       <c r="A232" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1">
       <c r="A233" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1">
       <c r="A234" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1">
       <c r="A235" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1">
       <c r="A236" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1">
       <c r="A237" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1">
       <c r="A239" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1">
       <c r="A240" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1">
       <c r="A241" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1">
       <c r="A242" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1">
       <c r="A243" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1">
       <c r="A244" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1">
       <c r="A245" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1">
       <c r="A247" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1">
       <c r="A248" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1">
       <c r="A249" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1">
       <c r="A250" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1">
       <c r="A251" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1">
       <c r="A252" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1">
       <c r="A253" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1">
       <c r="A254" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1">
       <c r="A255" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1">
       <c r="A256" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1">
       <c r="A257" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1">
       <c r="A258" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1">
       <c r="A260" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1">
       <c r="A261" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1">
       <c r="A262" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1">
       <c r="A263" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1">
       <c r="A264" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1">
       <c r="A265" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1">
       <c r="A266" t="s">
         <v>53</v>
       </c>
@@ -8863,13 +8997,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611217A6-9D3D-4598-8FDC-CCE93824063B}">
   <dimension ref="A1:I387"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G377" sqref="G377"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -8898,7 +9032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -8927,7 +9061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -8956,7 +9090,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -8985,7 +9119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -9014,7 +9148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -9043,7 +9177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -9072,7 +9206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -9101,7 +9235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -9130,7 +9264,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -9159,7 +9293,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -9188,7 +9322,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -9217,7 +9351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -9246,7 +9380,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -9275,7 +9409,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -9304,7 +9438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -9333,7 +9467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -9362,7 +9496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -9391,7 +9525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -9420,7 +9554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -9449,7 +9583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -9478,7 +9612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -9507,7 +9641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -9536,7 +9670,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -9565,7 +9699,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -9594,7 +9728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -9623,7 +9757,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -9652,7 +9786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -9681,7 +9815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -9710,7 +9844,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -9739,7 +9873,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -9768,7 +9902,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -9797,7 +9931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -9826,7 +9960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -9855,7 +9989,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -9884,7 +10018,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -9913,7 +10047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -9942,7 +10076,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -9971,7 +10105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -10000,7 +10134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -10029,7 +10163,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -10058,7 +10192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -10087,7 +10221,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -10116,7 +10250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -10145,7 +10279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -10174,7 +10308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -10203,7 +10337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -10232,7 +10366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -10261,7 +10395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -10290,7 +10424,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -10319,7 +10453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -10348,7 +10482,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -10377,7 +10511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -10406,7 +10540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -10435,7 +10569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -10464,7 +10598,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -10493,7 +10627,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>95</v>
       </c>
@@ -10522,7 +10656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -10551,7 +10685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -10580,7 +10714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -10609,7 +10743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -10638,7 +10772,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -10667,7 +10801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>95</v>
       </c>
@@ -10696,7 +10830,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -10725,7 +10859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -10754,7 +10888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -10783,7 +10917,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -10812,7 +10946,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -10841,7 +10975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -10870,7 +11004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>95</v>
       </c>
@@ -10899,7 +11033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -10928,7 +11062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>95</v>
       </c>
@@ -10957,7 +11091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>95</v>
       </c>
@@ -10986,7 +11120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -11000,7 +11134,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
         <v>106</v>
       </c>
@@ -11023,12 +11157,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
         <v>112</v>
       </c>
@@ -11042,7 +11176,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -11071,7 +11205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -11100,7 +11234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -11129,7 +11263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -11158,7 +11292,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -11187,7 +11321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -11216,7 +11350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -11245,7 +11379,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -11274,7 +11408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -11303,7 +11437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -11332,7 +11466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -11361,7 +11495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -11390,7 +11524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -11419,7 +11553,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>95</v>
       </c>
@@ -11448,7 +11582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -11477,7 +11611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -11506,7 +11640,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>95</v>
       </c>
@@ -11535,7 +11669,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>95</v>
       </c>
@@ -11564,7 +11698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -11593,7 +11727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>95</v>
       </c>
@@ -11622,7 +11756,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>95</v>
       </c>
@@ -11651,7 +11785,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>95</v>
       </c>
@@ -11680,7 +11814,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>95</v>
       </c>
@@ -11709,7 +11843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>95</v>
       </c>
@@ -11738,7 +11872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>95</v>
       </c>
@@ -11767,7 +11901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>95</v>
       </c>
@@ -11796,7 +11930,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>95</v>
       </c>
@@ -11825,7 +11959,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>95</v>
       </c>
@@ -11854,7 +11988,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>95</v>
       </c>
@@ -11883,7 +12017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -11912,7 +12046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>95</v>
       </c>
@@ -11941,7 +12075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>95</v>
       </c>
@@ -11970,7 +12104,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>95</v>
       </c>
@@ -11999,7 +12133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>95</v>
       </c>
@@ -12028,7 +12162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>95</v>
       </c>
@@ -12057,7 +12191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>95</v>
       </c>
@@ -12086,7 +12220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>95</v>
       </c>
@@ -12115,7 +12249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>95</v>
       </c>
@@ -12144,7 +12278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>95</v>
       </c>
@@ -12173,7 +12307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>95</v>
       </c>
@@ -12202,7 +12336,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>95</v>
       </c>
@@ -12231,7 +12365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>95</v>
       </c>
@@ -12260,7 +12394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>95</v>
       </c>
@@ -12289,7 +12423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>95</v>
       </c>
@@ -12318,7 +12452,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>95</v>
       </c>
@@ -12347,7 +12481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>95</v>
       </c>
@@ -12376,7 +12510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>95</v>
       </c>
@@ -12405,7 +12539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>95</v>
       </c>
@@ -12434,7 +12568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>95</v>
       </c>
@@ -12463,7 +12597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>95</v>
       </c>
@@ -12492,7 +12626,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>95</v>
       </c>
@@ -12521,7 +12655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>95</v>
       </c>
@@ -12550,7 +12684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>95</v>
       </c>
@@ -12579,7 +12713,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>95</v>
       </c>
@@ -12608,7 +12742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>95</v>
       </c>
@@ -12637,7 +12771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>95</v>
       </c>
@@ -12666,7 +12800,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>95</v>
       </c>
@@ -12695,7 +12829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>95</v>
       </c>
@@ -12724,7 +12858,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>95</v>
       </c>
@@ -12753,7 +12887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>95</v>
       </c>
@@ -12782,7 +12916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>95</v>
       </c>
@@ -12811,7 +12945,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>95</v>
       </c>
@@ -12840,7 +12974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>95</v>
       </c>
@@ -12869,7 +13003,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>95</v>
       </c>
@@ -12898,7 +13032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>95</v>
       </c>
@@ -12927,7 +13061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>95</v>
       </c>
@@ -12956,7 +13090,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>95</v>
       </c>
@@ -12985,7 +13119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>95</v>
       </c>
@@ -13014,7 +13148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>95</v>
       </c>
@@ -13043,7 +13177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>95</v>
       </c>
@@ -13072,7 +13206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>95</v>
       </c>
@@ -13101,7 +13235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>95</v>
       </c>
@@ -13130,7 +13264,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>95</v>
       </c>
@@ -13159,7 +13293,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>95</v>
       </c>
@@ -13188,7 +13322,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>95</v>
       </c>
@@ -13217,7 +13351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>96</v>
       </c>
@@ -13231,7 +13365,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
         <v>106</v>
       </c>
@@ -13254,12 +13388,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
         <v>112</v>
       </c>
@@ -13273,7 +13407,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>118</v>
       </c>
@@ -13288,7 +13422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>119</v>
       </c>
@@ -13308,7 +13442,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>95</v>
       </c>
@@ -13337,7 +13471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>95</v>
       </c>
@@ -13366,7 +13500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>95</v>
       </c>
@@ -13395,7 +13529,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>95</v>
       </c>
@@ -13424,7 +13558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>95</v>
       </c>
@@ -13453,7 +13587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>95</v>
       </c>
@@ -13482,7 +13616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>95</v>
       </c>
@@ -13511,7 +13645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>95</v>
       </c>
@@ -13540,7 +13674,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>95</v>
       </c>
@@ -13569,7 +13703,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>95</v>
       </c>
@@ -13598,7 +13732,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>95</v>
       </c>
@@ -13627,7 +13761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>95</v>
       </c>
@@ -13656,7 +13790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>95</v>
       </c>
@@ -13685,7 +13819,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>95</v>
       </c>
@@ -13714,7 +13848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>95</v>
       </c>
@@ -13743,7 +13877,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>95</v>
       </c>
@@ -13772,7 +13906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>95</v>
       </c>
@@ -13801,7 +13935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>95</v>
       </c>
@@ -13830,7 +13964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>95</v>
       </c>
@@ -13859,7 +13993,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>95</v>
       </c>
@@ -13888,7 +14022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>95</v>
       </c>
@@ -13917,7 +14051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>95</v>
       </c>
@@ -13946,7 +14080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>95</v>
       </c>
@@ -13975,7 +14109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>95</v>
       </c>
@@ -14004,7 +14138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>95</v>
       </c>
@@ -14033,7 +14167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
         <v>95</v>
       </c>
@@ -14062,7 +14196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>95</v>
       </c>
@@ -14091,7 +14225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>95</v>
       </c>
@@ -14120,7 +14254,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
         <v>95</v>
       </c>
@@ -14149,7 +14283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
         <v>95</v>
       </c>
@@ -14178,7 +14312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>95</v>
       </c>
@@ -14207,7 +14341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
         <v>95</v>
       </c>
@@ -14236,7 +14370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
         <v>95</v>
       </c>
@@ -14265,7 +14399,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
         <v>95</v>
       </c>
@@ -14294,7 +14428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
         <v>95</v>
       </c>
@@ -14323,7 +14457,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
         <v>95</v>
       </c>
@@ -14352,7 +14486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
         <v>95</v>
       </c>
@@ -14381,7 +14515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
         <v>95</v>
       </c>
@@ -14410,7 +14544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
         <v>95</v>
       </c>
@@ -14439,7 +14573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
         <v>95</v>
       </c>
@@ -14468,7 +14602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
         <v>95</v>
       </c>
@@ -14497,7 +14631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
         <v>95</v>
       </c>
@@ -14526,7 +14660,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
         <v>95</v>
       </c>
@@ -14555,7 +14689,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
         <v>95</v>
       </c>
@@ -14584,7 +14718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
         <v>95</v>
       </c>
@@ -14613,7 +14747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
         <v>95</v>
       </c>
@@ -14642,7 +14776,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
         <v>95</v>
       </c>
@@ -14671,7 +14805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
         <v>95</v>
       </c>
@@ -14700,7 +14834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
         <v>95</v>
       </c>
@@ -14729,7 +14863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
         <v>95</v>
       </c>
@@ -14758,7 +14892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
         <v>95</v>
       </c>
@@ -14787,7 +14921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9">
       <c r="A222" t="s">
         <v>95</v>
       </c>
@@ -14816,7 +14950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
         <v>95</v>
       </c>
@@ -14845,7 +14979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
         <v>95</v>
       </c>
@@ -14874,7 +15008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
         <v>95</v>
       </c>
@@ -14903,7 +15037,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
         <v>95</v>
       </c>
@@ -14932,7 +15066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
         <v>95</v>
       </c>
@@ -14961,7 +15095,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
         <v>95</v>
       </c>
@@ -14990,7 +15124,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
         <v>95</v>
       </c>
@@ -15019,7 +15153,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
         <v>95</v>
       </c>
@@ -15048,7 +15182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9">
       <c r="A231" t="s">
         <v>95</v>
       </c>
@@ -15077,7 +15211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
         <v>95</v>
       </c>
@@ -15106,7 +15240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
         <v>95</v>
       </c>
@@ -15135,7 +15269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
         <v>95</v>
       </c>
@@ -15164,7 +15298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
         <v>95</v>
       </c>
@@ -15193,7 +15327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
         <v>95</v>
       </c>
@@ -15222,7 +15356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
         <v>95</v>
       </c>
@@ -15251,7 +15385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
         <v>95</v>
       </c>
@@ -15280,7 +15414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
         <v>95</v>
       </c>
@@ -15309,7 +15443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
         <v>95</v>
       </c>
@@ -15338,7 +15472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
         <v>95</v>
       </c>
@@ -15367,7 +15501,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
         <v>95</v>
       </c>
@@ -15396,7 +15530,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
         <v>95</v>
       </c>
@@ -15425,7 +15559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9">
       <c r="A244" t="s">
         <v>95</v>
       </c>
@@ -15454,7 +15588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
         <v>95</v>
       </c>
@@ -15483,7 +15617,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
         <v>95</v>
       </c>
@@ -15512,7 +15646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9">
       <c r="A247" t="s">
         <v>95</v>
       </c>
@@ -15541,7 +15675,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
         <v>95</v>
       </c>
@@ -15570,7 +15704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
         <v>95</v>
       </c>
@@ -15599,7 +15733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
         <v>95</v>
       </c>
@@ -15628,7 +15762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9">
       <c r="A251" t="s">
         <v>95</v>
       </c>
@@ -15657,7 +15791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
         <v>95</v>
       </c>
@@ -15686,7 +15820,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9">
       <c r="A253" t="s">
         <v>95</v>
       </c>
@@ -15715,7 +15849,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9">
       <c r="A254" t="s">
         <v>95</v>
       </c>
@@ -15744,7 +15878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9">
       <c r="A255" t="s">
         <v>95</v>
       </c>
@@ -15773,7 +15907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
         <v>95</v>
       </c>
@@ -15802,7 +15936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9">
       <c r="A257" t="s">
         <v>95</v>
       </c>
@@ -15831,7 +15965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9">
       <c r="A258" t="s">
         <v>95</v>
       </c>
@@ -15860,7 +15994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
         <v>95</v>
       </c>
@@ -15889,7 +16023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
         <v>95</v>
       </c>
@@ -15918,7 +16052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9">
       <c r="A261" t="s">
         <v>95</v>
       </c>
@@ -15947,7 +16081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
         <v>95</v>
       </c>
@@ -15976,7 +16110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9">
       <c r="A263" t="s">
         <v>95</v>
       </c>
@@ -16005,7 +16139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9">
       <c r="A264" t="s">
         <v>95</v>
       </c>
@@ -16034,7 +16168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
         <v>95</v>
       </c>
@@ -16063,7 +16197,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9">
       <c r="A266" t="s">
         <v>95</v>
       </c>
@@ -16092,7 +16226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9">
       <c r="A267" t="s">
         <v>95</v>
       </c>
@@ -16121,7 +16255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
         <v>95</v>
       </c>
@@ -16150,7 +16284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
         <v>95</v>
       </c>
@@ -16179,7 +16313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9">
       <c r="A270" t="s">
         <v>95</v>
       </c>
@@ -16208,7 +16342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9">
       <c r="A272" t="s">
         <v>96</v>
       </c>
@@ -16222,7 +16356,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9">
       <c r="B273" t="s">
         <v>106</v>
       </c>
@@ -16245,12 +16379,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9">
       <c r="B275" t="s">
         <v>112</v>
       </c>
@@ -16264,7 +16398,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9">
       <c r="A277" t="s">
         <v>118</v>
       </c>
@@ -16279,7 +16413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9">
       <c r="A279" t="s">
         <v>119</v>
       </c>
@@ -16299,7 +16433,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9">
       <c r="A280" t="s">
         <v>95</v>
       </c>
@@ -16328,7 +16462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9">
       <c r="A281" t="s">
         <v>95</v>
       </c>
@@ -16357,7 +16491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9">
       <c r="A282" t="s">
         <v>95</v>
       </c>
@@ -16386,7 +16520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9">
       <c r="A283" t="s">
         <v>95</v>
       </c>
@@ -16415,7 +16549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9">
       <c r="A284" t="s">
         <v>95</v>
       </c>
@@ -16444,7 +16578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9">
       <c r="A285" t="s">
         <v>95</v>
       </c>
@@ -16473,7 +16607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9">
       <c r="A286" t="s">
         <v>95</v>
       </c>
@@ -16502,7 +16636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9">
       <c r="A287" t="s">
         <v>95</v>
       </c>
@@ -16531,7 +16665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9">
       <c r="A288" t="s">
         <v>95</v>
       </c>
@@ -16560,7 +16694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9">
       <c r="A289" t="s">
         <v>95</v>
       </c>
@@ -16589,7 +16723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9">
       <c r="A290" t="s">
         <v>95</v>
       </c>
@@ -16618,7 +16752,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9">
       <c r="A291" t="s">
         <v>95</v>
       </c>
@@ -16647,7 +16781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9">
       <c r="A292" t="s">
         <v>95</v>
       </c>
@@ -16676,7 +16810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9">
       <c r="A293" t="s">
         <v>95</v>
       </c>
@@ -16705,7 +16839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9">
       <c r="A294" t="s">
         <v>95</v>
       </c>
@@ -16734,7 +16868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9">
       <c r="A295" t="s">
         <v>95</v>
       </c>
@@ -16763,7 +16897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9">
       <c r="A296" t="s">
         <v>95</v>
       </c>
@@ -16792,7 +16926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9">
       <c r="A297" t="s">
         <v>95</v>
       </c>
@@ -16821,7 +16955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9">
       <c r="A298" t="s">
         <v>95</v>
       </c>
@@ -16850,7 +16984,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9">
       <c r="A299" t="s">
         <v>95</v>
       </c>
@@ -16879,7 +17013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9">
       <c r="A300" t="s">
         <v>95</v>
       </c>
@@ -16908,7 +17042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9">
       <c r="A301" t="s">
         <v>95</v>
       </c>
@@ -16937,7 +17071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9">
       <c r="A302" t="s">
         <v>95</v>
       </c>
@@ -16966,7 +17100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9">
       <c r="A303" t="s">
         <v>95</v>
       </c>
@@ -16995,7 +17129,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9">
       <c r="A304" t="s">
         <v>95</v>
       </c>
@@ -17024,7 +17158,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9">
       <c r="A305" t="s">
         <v>95</v>
       </c>
@@ -17053,7 +17187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9">
       <c r="A306" t="s">
         <v>95</v>
       </c>
@@ -17082,7 +17216,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9">
       <c r="A307" t="s">
         <v>95</v>
       </c>
@@ -17111,7 +17245,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9">
       <c r="A308" t="s">
         <v>95</v>
       </c>
@@ -17140,7 +17274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9">
       <c r="A309" t="s">
         <v>95</v>
       </c>
@@ -17169,7 +17303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9">
       <c r="A310" t="s">
         <v>95</v>
       </c>
@@ -17198,7 +17332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9">
       <c r="A311" t="s">
         <v>95</v>
       </c>
@@ -17227,7 +17361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9">
       <c r="A312" t="s">
         <v>95</v>
       </c>
@@ -17256,7 +17390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9">
       <c r="A313" t="s">
         <v>95</v>
       </c>
@@ -17285,7 +17419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9">
       <c r="A314" t="s">
         <v>95</v>
       </c>
@@ -17314,7 +17448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9">
       <c r="A315" t="s">
         <v>95</v>
       </c>
@@ -17343,7 +17477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9">
       <c r="A316" t="s">
         <v>95</v>
       </c>
@@ -17372,7 +17506,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9">
       <c r="A317" t="s">
         <v>95</v>
       </c>
@@ -17401,7 +17535,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9">
       <c r="A318" t="s">
         <v>95</v>
       </c>
@@ -17430,7 +17564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9">
       <c r="A319" t="s">
         <v>95</v>
       </c>
@@ -17459,7 +17593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9">
       <c r="A320" t="s">
         <v>95</v>
       </c>
@@ -17488,7 +17622,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9">
       <c r="A321" t="s">
         <v>95</v>
       </c>
@@ -17517,7 +17651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9">
       <c r="A322" t="s">
         <v>95</v>
       </c>
@@ -17546,7 +17680,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9">
       <c r="A323" t="s">
         <v>95</v>
       </c>
@@ -17575,7 +17709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9">
       <c r="A324" t="s">
         <v>95</v>
       </c>
@@ -17604,7 +17738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9">
       <c r="A325" t="s">
         <v>95</v>
       </c>
@@ -17633,7 +17767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9">
       <c r="A326" t="s">
         <v>95</v>
       </c>
@@ -17662,7 +17796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9">
       <c r="A327" t="s">
         <v>95</v>
       </c>
@@ -17691,7 +17825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9">
       <c r="A328" t="s">
         <v>95</v>
       </c>
@@ -17720,7 +17854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9">
       <c r="A329" t="s">
         <v>95</v>
       </c>
@@ -17749,7 +17883,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9">
       <c r="A330" t="s">
         <v>95</v>
       </c>
@@ -17778,7 +17912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9">
       <c r="A331" t="s">
         <v>95</v>
       </c>
@@ -17807,7 +17941,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9">
       <c r="A332" t="s">
         <v>95</v>
       </c>
@@ -17836,7 +17970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9">
       <c r="A333" t="s">
         <v>95</v>
       </c>
@@ -17865,7 +17999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9">
       <c r="A334" t="s">
         <v>95</v>
       </c>
@@ -17894,7 +18028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9">
       <c r="A335" t="s">
         <v>95</v>
       </c>
@@ -17923,7 +18057,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9">
       <c r="A336" t="s">
         <v>95</v>
       </c>
@@ -17952,7 +18086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9">
       <c r="A337" t="s">
         <v>95</v>
       </c>
@@ -17981,7 +18115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9">
       <c r="A338" t="s">
         <v>95</v>
       </c>
@@ -18010,7 +18144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9">
       <c r="A339" t="s">
         <v>95</v>
       </c>
@@ -18039,7 +18173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9">
       <c r="A340" t="s">
         <v>95</v>
       </c>
@@ -18068,7 +18202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9">
       <c r="A341" t="s">
         <v>95</v>
       </c>
@@ -18097,7 +18231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9">
       <c r="A342" t="s">
         <v>95</v>
       </c>
@@ -18126,7 +18260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9">
       <c r="A343" t="s">
         <v>95</v>
       </c>
@@ -18155,7 +18289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9">
       <c r="A344" t="s">
         <v>95</v>
       </c>
@@ -18184,7 +18318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9">
       <c r="A345" t="s">
         <v>95</v>
       </c>
@@ -18213,7 +18347,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9">
       <c r="A346" t="s">
         <v>95</v>
       </c>
@@ -18242,7 +18376,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9">
       <c r="A347" t="s">
         <v>95</v>
       </c>
@@ -18271,7 +18405,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9">
       <c r="A348" t="s">
         <v>95</v>
       </c>
@@ -18300,7 +18434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9">
       <c r="A349" t="s">
         <v>95</v>
       </c>
@@ -18329,7 +18463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9">
       <c r="A350" t="s">
         <v>95</v>
       </c>
@@ -18358,7 +18492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9">
       <c r="A351" t="s">
         <v>95</v>
       </c>
@@ -18387,7 +18521,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9">
       <c r="A352" t="s">
         <v>95</v>
       </c>
@@ -18416,7 +18550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9">
       <c r="A353" t="s">
         <v>95</v>
       </c>
@@ -18445,7 +18579,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9">
       <c r="A354" t="s">
         <v>95</v>
       </c>
@@ -18474,7 +18608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9">
       <c r="A355" t="s">
         <v>95</v>
       </c>
@@ -18503,7 +18637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9">
       <c r="A356" t="s">
         <v>95</v>
       </c>
@@ -18532,7 +18666,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9">
       <c r="A357" t="s">
         <v>95</v>
       </c>
@@ -18561,7 +18695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9">
       <c r="A358" t="s">
         <v>95</v>
       </c>
@@ -18590,7 +18724,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9">
       <c r="A359" t="s">
         <v>95</v>
       </c>
@@ -18619,7 +18753,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9">
       <c r="A360" t="s">
         <v>95</v>
       </c>
@@ -18648,7 +18782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9">
       <c r="A361" t="s">
         <v>95</v>
       </c>
@@ -18677,7 +18811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9">
       <c r="A362" t="s">
         <v>95</v>
       </c>
@@ -18706,7 +18840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9">
       <c r="A363" t="s">
         <v>95</v>
       </c>
@@ -18735,7 +18869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9">
       <c r="A364" t="s">
         <v>95</v>
       </c>
@@ -18764,7 +18898,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9">
       <c r="A365" t="s">
         <v>95</v>
       </c>
@@ -18793,7 +18927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9">
       <c r="A366" t="s">
         <v>95</v>
       </c>
@@ -18822,7 +18956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9">
       <c r="A367" t="s">
         <v>95</v>
       </c>
@@ -18851,7 +18985,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9">
       <c r="A368" t="s">
         <v>95</v>
       </c>
@@ -18880,7 +19014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9">
       <c r="A369" t="s">
         <v>95</v>
       </c>
@@ -18909,7 +19043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9">
       <c r="A370" t="s">
         <v>95</v>
       </c>
@@ -18938,7 +19072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9">
       <c r="A371" t="s">
         <v>95</v>
       </c>
@@ -18967,7 +19101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9">
       <c r="A372" t="s">
         <v>95</v>
       </c>
@@ -18996,7 +19130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9">
       <c r="A373" t="s">
         <v>95</v>
       </c>
@@ -19025,7 +19159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9">
       <c r="A374" t="s">
         <v>95</v>
       </c>
@@ -19054,7 +19188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9">
       <c r="A375" t="s">
         <v>95</v>
       </c>
@@ -19083,7 +19217,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9">
       <c r="A376" t="s">
         <v>95</v>
       </c>
@@ -19112,7 +19246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9">
       <c r="A377" t="s">
         <v>95</v>
       </c>
@@ -19141,7 +19275,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9">
       <c r="A378" t="s">
         <v>95</v>
       </c>
@@ -19170,7 +19304,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9">
       <c r="A379" t="s">
         <v>95</v>
       </c>
@@ -19199,7 +19333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9">
       <c r="A381" t="s">
         <v>96</v>
       </c>
@@ -19213,7 +19347,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9">
       <c r="B382" t="s">
         <v>106</v>
       </c>
@@ -19236,12 +19370,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9">
       <c r="A383" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9">
       <c r="B384" t="s">
         <v>112</v>
       </c>
@@ -19255,12 +19389,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1">
       <c r="A386" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1">
       <c r="A387" t="s">
         <v>53</v>
       </c>
@@ -19275,18 +19409,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7DCB4-B0E4-4776-AFDB-E0104A625C22}">
   <dimension ref="A1:F349"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>133</v>
@@ -19295,7 +19429,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>470</v>
       </c>
@@ -19312,7 +19446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>37</v>
       </c>
@@ -19329,23 +19463,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>45</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4">
+        <f>MEDIAN(A2:A199)</f>
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <f>MEDIAN(B2:B349)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2226</v>
       </c>
       <c r="B5">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(A2:A199)</f>
+        <v>215.1919191919192</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(B2:B349)</f>
+        <v>34.956896551724135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>34</v>
       </c>
@@ -19353,7 +19509,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>28</v>
       </c>
@@ -19361,7 +19517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>37</v>
       </c>
@@ -19369,7 +19525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>46</v>
       </c>
@@ -19377,7 +19533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>3002</v>
       </c>
@@ -19385,7 +19541,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>37</v>
       </c>
@@ -19393,7 +19549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>41</v>
       </c>
@@ -19401,7 +19557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>50</v>
       </c>
@@ -19409,7 +19565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>48</v>
       </c>
@@ -19417,7 +19573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>43</v>
       </c>
@@ -19425,7 +19581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>42</v>
       </c>
@@ -19433,7 +19589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>31</v>
       </c>
@@ -19441,7 +19597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>2594</v>
       </c>
@@ -19449,7 +19605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>31</v>
       </c>
@@ -19457,7 +19613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>45</v>
       </c>
@@ -19465,7 +19621,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>2147</v>
       </c>
@@ -19473,7 +19629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>28</v>
       </c>
@@ -19481,7 +19637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>45</v>
       </c>
@@ -19489,7 +19645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>2460</v>
       </c>
@@ -19497,7 +19653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>37</v>
       </c>
@@ -19505,7 +19661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>38</v>
       </c>
@@ -19513,7 +19669,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>41</v>
       </c>
@@ -19521,7 +19677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>38</v>
       </c>
@@ -19529,7 +19685,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>32</v>
       </c>
@@ -19537,7 +19693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -19545,7 +19701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -19553,7 +19709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>33</v>
       </c>
@@ -19561,7 +19717,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -19569,7 +19725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>29</v>
       </c>
@@ -19577,7 +19733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>31</v>
       </c>
@@ -19585,7 +19741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>32</v>
       </c>
@@ -19593,7 +19749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>28</v>
       </c>
@@ -19601,7 +19757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>40</v>
       </c>
@@ -19609,7 +19765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>29</v>
       </c>
@@ -19617,7 +19773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>34</v>
       </c>
@@ -19625,7 +19781,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>34</v>
       </c>
@@ -19633,7 +19789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>33</v>
       </c>
@@ -19641,7 +19797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>30</v>
       </c>
@@ -19649,7 +19805,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>32</v>
       </c>
@@ -19657,7 +19813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>31</v>
       </c>
@@ -19665,7 +19821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>29</v>
       </c>
@@ -19673,7 +19829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>41</v>
       </c>
@@ -19681,7 +19837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>33</v>
       </c>
@@ -19689,7 +19845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>35</v>
       </c>
@@ -19697,7 +19853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>30</v>
       </c>
@@ -19705,7 +19861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>32</v>
       </c>
@@ -19713,7 +19869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>29</v>
       </c>
@@ -19721,7 +19877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>29</v>
       </c>
@@ -19729,7 +19885,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>33</v>
       </c>
@@ -19737,7 +19893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>29</v>
       </c>
@@ -19745,7 +19901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>42</v>
       </c>
@@ -19753,7 +19909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>77</v>
       </c>
@@ -19761,7 +19917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>35</v>
       </c>
@@ -19769,7 +19925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>38</v>
       </c>
@@ -19777,7 +19933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>34</v>
       </c>
@@ -19785,7 +19941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>33</v>
       </c>
@@ -19793,7 +19949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>41</v>
       </c>
@@ -19801,7 +19957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>40</v>
       </c>
@@ -19809,7 +19965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>38</v>
       </c>
@@ -19817,7 +19973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>29</v>
       </c>
@@ -19825,7 +19981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>38</v>
       </c>
@@ -19833,7 +19989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>35</v>
       </c>
@@ -19841,7 +19997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>29</v>
       </c>
@@ -19849,7 +20005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>29</v>
       </c>
@@ -19857,7 +20013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>33</v>
       </c>
@@ -19865,7 +20021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>37</v>
       </c>
@@ -19873,7 +20029,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>29</v>
       </c>
@@ -19881,7 +20037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>33</v>
       </c>
@@ -19889,7 +20045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>33</v>
       </c>
@@ -19897,7 +20053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>34</v>
       </c>
@@ -19905,7 +20061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>29</v>
       </c>
@@ -19913,7 +20069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>37</v>
       </c>
@@ -19921,7 +20077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>32</v>
       </c>
@@ -19929,7 +20085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>30</v>
       </c>
@@ -19937,7 +20093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>39</v>
       </c>
@@ -19945,7 +20101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>32</v>
       </c>
@@ -19953,7 +20109,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>31</v>
       </c>
@@ -19961,7 +20117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>32</v>
       </c>
@@ -19969,7 +20125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>43</v>
       </c>
@@ -19977,7 +20133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>34</v>
       </c>
@@ -19985,7 +20141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>31</v>
       </c>
@@ -19993,7 +20149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>29</v>
       </c>
@@ -20001,7 +20157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>41</v>
       </c>
@@ -20009,7 +20165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>35</v>
       </c>
@@ -20017,7 +20173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>41</v>
       </c>
@@ -20025,7 +20181,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>31</v>
       </c>
@@ -20033,7 +20189,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>29</v>
       </c>
@@ -20041,7 +20197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>31</v>
       </c>
@@ -20049,7 +20205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>31</v>
       </c>
@@ -20057,7 +20213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>30</v>
       </c>
@@ -20065,7 +20221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>34</v>
       </c>
@@ -20073,7 +20229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>41</v>
       </c>
@@ -20081,7 +20237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>33</v>
       </c>
@@ -20089,7 +20245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>31</v>
       </c>
@@ -20097,7 +20253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>33</v>
       </c>
@@ -20105,7 +20261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>3098</v>
       </c>
@@ -20113,7 +20269,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>61</v>
       </c>
@@ -20121,7 +20277,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>31</v>
       </c>
@@ -20129,7 +20285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>2747</v>
       </c>
@@ -20137,7 +20293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>45</v>
       </c>
@@ -20145,7 +20301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>124</v>
       </c>
@@ -20153,7 +20309,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>2968</v>
       </c>
@@ -20161,7 +20317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>36</v>
       </c>
@@ -20169,7 +20325,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>43</v>
       </c>
@@ -20177,7 +20333,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>2473</v>
       </c>
@@ -20185,7 +20341,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>31</v>
       </c>
@@ -20193,7 +20349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>36</v>
       </c>
@@ -20201,7 +20357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>31</v>
       </c>
@@ -20209,7 +20365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>34</v>
       </c>
@@ -20217,7 +20373,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>42</v>
       </c>
@@ -20225,7 +20381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>2022</v>
       </c>
@@ -20233,7 +20389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>29</v>
       </c>
@@ -20241,7 +20397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>34</v>
       </c>
@@ -20249,7 +20405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>31</v>
       </c>
@@ -20257,7 +20413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>33</v>
       </c>
@@ -20265,7 +20421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>38</v>
       </c>
@@ -20273,7 +20429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>35</v>
       </c>
@@ -20281,7 +20437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>33</v>
       </c>
@@ -20289,7 +20445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>40</v>
       </c>
@@ -20297,7 +20453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>36</v>
       </c>
@@ -20305,7 +20461,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>70</v>
       </c>
@@ -20313,7 +20469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>192</v>
       </c>
@@ -20321,7 +20477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>34</v>
       </c>
@@ -20329,7 +20485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>35</v>
       </c>
@@ -20337,7 +20493,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>42</v>
       </c>
@@ -20345,7 +20501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>41</v>
       </c>
@@ -20353,7 +20509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>53</v>
       </c>
@@ -20361,7 +20517,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>45</v>
       </c>
@@ -20369,7 +20525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>31</v>
       </c>
@@ -20377,7 +20533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>1441</v>
       </c>
@@ -20385,7 +20541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>31</v>
       </c>
@@ -20393,7 +20549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>41</v>
       </c>
@@ -20401,7 +20557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>29</v>
       </c>
@@ -20409,7 +20565,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>32</v>
       </c>
@@ -20417,7 +20573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>33</v>
       </c>
@@ -20425,7 +20581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>75</v>
       </c>
@@ -20433,7 +20589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>36</v>
       </c>
@@ -20441,7 +20597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>36</v>
       </c>
@@ -20449,7 +20605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>30</v>
       </c>
@@ -20457,7 +20613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>37</v>
       </c>
@@ -20465,7 +20621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>2454</v>
       </c>
@@ -20473,7 +20629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>47</v>
       </c>
@@ -20481,7 +20637,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>47</v>
       </c>
@@ -20489,7 +20645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>40</v>
       </c>
@@ -20497,7 +20653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>58</v>
       </c>
@@ -20505,7 +20661,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>39</v>
       </c>
@@ -20513,7 +20669,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152">
         <v>51</v>
       </c>
@@ -20521,7 +20677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153">
         <v>1300</v>
       </c>
@@ -20529,7 +20685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154">
         <v>31</v>
       </c>
@@ -20537,7 +20693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155">
         <v>41</v>
       </c>
@@ -20545,7 +20701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156">
         <v>30</v>
       </c>
@@ -20553,7 +20709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157">
         <v>34</v>
       </c>
@@ -20561,7 +20717,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158">
         <v>39</v>
       </c>
@@ -20569,7 +20725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159">
         <v>29</v>
       </c>
@@ -20577,7 +20733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160">
         <v>33</v>
       </c>
@@ -20585,7 +20741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161">
         <v>35</v>
       </c>
@@ -20593,7 +20749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162">
         <v>39</v>
       </c>
@@ -20601,7 +20757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163">
         <v>31</v>
       </c>
@@ -20609,7 +20765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164">
         <v>884</v>
       </c>
@@ -20617,7 +20773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165">
         <v>41</v>
       </c>
@@ -20625,7 +20781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166">
         <v>32</v>
       </c>
@@ -20633,7 +20789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167">
         <v>31</v>
       </c>
@@ -20641,7 +20797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168">
         <v>32</v>
       </c>
@@ -20649,7 +20805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169">
         <v>36</v>
       </c>
@@ -20657,7 +20813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170">
         <v>46</v>
       </c>
@@ -20665,7 +20821,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171">
         <v>31</v>
       </c>
@@ -20673,7 +20829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172">
         <v>31</v>
       </c>
@@ -20681,7 +20837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173">
         <v>30</v>
       </c>
@@ -20689,7 +20845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174">
         <v>29</v>
       </c>
@@ -20697,7 +20853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175">
         <v>30</v>
       </c>
@@ -20705,7 +20861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176">
         <v>33</v>
       </c>
@@ -20713,7 +20869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177">
         <v>29</v>
       </c>
@@ -20721,7 +20877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178">
         <v>35</v>
       </c>
@@ -20729,7 +20885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179">
         <v>59</v>
       </c>
@@ -20737,7 +20893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180">
         <v>32</v>
       </c>
@@ -20745,7 +20901,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181">
         <v>35</v>
       </c>
@@ -20753,7 +20909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182">
         <v>33</v>
       </c>
@@ -20761,7 +20917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183">
         <v>32</v>
       </c>
@@ -20769,7 +20925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184">
         <v>30</v>
       </c>
@@ -20777,7 +20933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185">
         <v>60</v>
       </c>
@@ -20785,7 +20941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186">
         <v>32</v>
       </c>
@@ -20793,7 +20949,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187">
         <v>34</v>
       </c>
@@ -20801,7 +20957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188">
         <v>47</v>
       </c>
@@ -20809,7 +20965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189">
         <v>38</v>
       </c>
@@ -20817,7 +20973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190">
         <v>38</v>
       </c>
@@ -20825,7 +20981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191">
         <v>40</v>
       </c>
@@ -20833,7 +20989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192">
         <v>35</v>
       </c>
@@ -20841,7 +20997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193">
         <v>41</v>
       </c>
@@ -20849,7 +21005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194">
         <v>45</v>
       </c>
@@ -20857,7 +21013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195">
         <v>3317</v>
       </c>
@@ -20865,7 +21021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196">
         <v>30</v>
       </c>
@@ -20873,7 +21029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197">
         <v>30</v>
       </c>
@@ -20881,7 +21037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198">
         <v>57</v>
       </c>
@@ -20889,7 +21045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199">
         <v>165</v>
       </c>
@@ -20897,752 +21053,752 @@
         <v>34</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="B200">
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="B201">
         <v>33</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="B202">
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="B203">
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="B204">
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="B205">
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="B206">
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="B207">
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="B208">
         <v>45</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2">
       <c r="B209">
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2">
       <c r="B210">
         <v>48</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2">
       <c r="B211">
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2">
       <c r="B212">
         <v>35</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2">
       <c r="B213">
         <v>33</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2">
       <c r="B214">
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2">
       <c r="B215">
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2">
       <c r="B216">
         <v>32</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2">
       <c r="B217">
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2">
       <c r="B218">
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2">
       <c r="B219">
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2">
       <c r="B220">
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2">
       <c r="B221">
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2">
       <c r="B222">
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2">
       <c r="B223">
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2">
       <c r="B224">
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2">
       <c r="B225">
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2">
       <c r="B226">
         <v>35</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2">
       <c r="B227">
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2">
       <c r="B228">
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2">
       <c r="B229">
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2">
       <c r="B230">
         <v>34</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2">
       <c r="B231">
         <v>35</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2">
       <c r="B232">
         <v>33</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2">
       <c r="B233">
         <v>33</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2">
       <c r="B234">
         <v>74</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2">
       <c r="B235">
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2">
       <c r="B236">
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2">
       <c r="B237">
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2">
       <c r="B238">
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2">
       <c r="B239">
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2">
       <c r="B240">
         <v>36</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2">
       <c r="B241">
         <v>33</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2">
       <c r="B242">
         <v>34</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2">
       <c r="B243">
         <v>36</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2">
       <c r="B244">
         <v>33</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2">
       <c r="B245">
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2">
       <c r="B246">
         <v>37</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2">
       <c r="B247">
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2">
       <c r="B248">
         <v>32</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:2">
       <c r="B249">
         <v>78</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:2">
       <c r="B250">
         <v>118</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:2">
       <c r="B251">
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:2">
       <c r="B252">
         <v>36</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:2">
       <c r="B253">
         <v>32</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:2">
       <c r="B254">
         <v>34</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:2">
       <c r="B255">
         <v>29</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:2">
       <c r="B256">
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:2">
       <c r="B257">
         <v>33</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:2">
       <c r="B258">
         <v>35</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:2">
       <c r="B259">
         <v>33</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:2">
       <c r="B260">
         <v>41</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:2">
       <c r="B261">
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:2">
       <c r="B262">
         <v>33</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:2">
       <c r="B263">
         <v>35</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:2">
       <c r="B264">
         <v>38</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:2">
       <c r="B265">
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:2">
       <c r="B266">
         <v>30</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:2">
       <c r="B267">
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:2">
       <c r="B268">
         <v>30</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:2">
       <c r="B269">
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:2">
       <c r="B270">
         <v>37</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:2">
       <c r="B271">
         <v>33</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:2">
       <c r="B272">
         <v>35</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:2">
       <c r="B273">
         <v>33</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:2">
       <c r="B274">
         <v>36</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:2">
       <c r="B275">
         <v>35</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:2">
       <c r="B276">
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:2">
       <c r="B277">
         <v>74</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:2">
       <c r="B278">
         <v>36</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:2">
       <c r="B279">
         <v>38</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:2">
       <c r="B280">
         <v>34</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:2">
       <c r="B281">
         <v>33</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:2">
       <c r="B282">
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:2">
       <c r="B283">
         <v>34</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:2">
       <c r="B284">
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:2">
       <c r="B285">
         <v>32</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:2">
       <c r="B286">
         <v>33</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:2">
       <c r="B287">
         <v>29</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:2">
       <c r="B288">
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:2">
       <c r="B289">
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:2">
       <c r="B290">
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:2">
       <c r="B291">
         <v>35</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:2">
       <c r="B292">
         <v>29</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:2">
       <c r="B293">
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:2">
       <c r="B294">
         <v>35</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:2">
       <c r="B295">
         <v>32</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:2">
       <c r="B296">
         <v>36</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:2">
       <c r="B297">
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:2">
       <c r="B298">
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:2">
       <c r="B299">
         <v>32</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:2">
       <c r="B300">
         <v>32</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:2">
       <c r="B301">
         <v>37</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:2">
       <c r="B302">
         <v>30</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:2">
       <c r="B303">
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:2">
       <c r="B304">
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:2">
       <c r="B305">
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:2">
       <c r="B306">
         <v>32</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:2">
       <c r="B307">
         <v>34</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:2">
       <c r="B308">
         <v>31</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:2">
       <c r="B309">
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:2">
       <c r="B310">
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:2">
       <c r="B311">
         <v>30</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:2">
       <c r="B312">
         <v>32</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:2">
       <c r="B313">
         <v>30</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:2">
       <c r="B314">
         <v>37</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:2">
       <c r="B315">
         <v>33</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:2">
       <c r="B316">
         <v>32</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:2">
       <c r="B317">
         <v>31</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:2">
       <c r="B318">
         <v>29</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:2">
       <c r="B319">
         <v>40</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:2">
       <c r="B320">
         <v>34</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:2">
       <c r="B321">
         <v>31</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:2">
       <c r="B322">
         <v>34</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:2">
       <c r="B323">
         <v>34</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:2">
       <c r="B324">
         <v>36</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:2">
       <c r="B325">
         <v>33</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:2">
       <c r="B326">
         <v>37</v>
       </c>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:2">
       <c r="B327">
         <v>33</v>
       </c>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:2">
       <c r="B328">
         <v>32</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:2">
       <c r="B329">
         <v>34</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:2">
       <c r="B330">
         <v>37</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:2">
       <c r="B331">
         <v>34</v>
       </c>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:2">
       <c r="B332">
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:2">
       <c r="B333">
         <v>31</v>
       </c>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:2">
       <c r="B334">
         <v>37</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:2">
       <c r="B335">
         <v>33</v>
       </c>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:2">
       <c r="B336">
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:2">
       <c r="B337">
         <v>30</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:2">
       <c r="B338">
         <v>35</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:2">
       <c r="B339">
         <v>31</v>
       </c>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:2">
       <c r="B340">
         <v>38</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:2">
       <c r="B341">
         <v>30</v>
       </c>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:2">
       <c r="B342">
         <v>148</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:2">
       <c r="B343">
         <v>32</v>
       </c>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:2">
       <c r="B344">
         <v>32</v>
       </c>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:2">
       <c r="B345">
         <v>33</v>
       </c>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:2">
       <c r="B346">
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:2">
       <c r="B347">
         <v>34</v>
       </c>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:2">
       <c r="B348">
         <v>32</v>
       </c>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:2">
       <c r="B349">
         <v>36</v>
       </c>
